--- a/database/industries/palayesh/shebandar/cost/yearly.xlsx
+++ b/database/industries/palayesh/shebandar/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F07FF3F-9716-4F7B-BC52-AA79398B7528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB74942A-E73B-4CEE-8273-0E299BD8C427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>بشکه</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>نفت خام</t>
@@ -635,12 +632,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -650,7 +647,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +659,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +671,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,7 +681,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -696,7 +693,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +705,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -718,7 +715,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -740,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -750,95 +747,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>199721637</v>
+        <v>430463375</v>
       </c>
       <c r="F10" s="9">
-        <v>430463375</v>
+        <v>678758101</v>
       </c>
       <c r="G10" s="9">
-        <v>678758101</v>
+        <v>759175124</v>
       </c>
       <c r="H10" s="9">
-        <v>759175124</v>
+        <v>1788348260</v>
       </c>
       <c r="I10" s="9">
-        <v>1788348260</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2732352649</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>302105</v>
+        <v>318275</v>
       </c>
       <c r="F11" s="11">
-        <v>318275</v>
+        <v>739321</v>
       </c>
       <c r="G11" s="11">
-        <v>739321</v>
+        <v>1264170</v>
       </c>
       <c r="H11" s="11">
-        <v>1264170</v>
+        <v>1689374</v>
       </c>
       <c r="I11" s="11">
-        <v>1689374</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2542709</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>4440230</v>
+        <v>5623146</v>
       </c>
       <c r="F12" s="9">
-        <v>5623146</v>
+        <v>7796914</v>
       </c>
       <c r="G12" s="9">
-        <v>7796914</v>
+        <v>10749149</v>
       </c>
       <c r="H12" s="9">
-        <v>10749149</v>
+        <v>35180021</v>
       </c>
       <c r="I12" s="9">
-        <v>35180021</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42759866</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>204463972</v>
+        <v>436404796</v>
       </c>
       <c r="F13" s="13">
-        <v>436404796</v>
+        <v>687294336</v>
       </c>
       <c r="G13" s="13">
-        <v>687294336</v>
+        <v>771188443</v>
       </c>
       <c r="H13" s="13">
-        <v>771188443</v>
+        <v>1825217655</v>
       </c>
       <c r="I13" s="13">
-        <v>1825217655</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2777655224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -860,51 +857,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>204463972</v>
+        <v>436404796</v>
       </c>
       <c r="F15" s="13">
-        <v>436404796</v>
+        <v>687294336</v>
       </c>
       <c r="G15" s="13">
-        <v>687294336</v>
+        <v>771188443</v>
       </c>
       <c r="H15" s="13">
-        <v>771188443</v>
+        <v>1825217655</v>
       </c>
       <c r="I15" s="13">
-        <v>1825217655</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2777655224</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-711898</v>
+        <v>-1448803</v>
       </c>
       <c r="F16" s="9">
-        <v>-1448803</v>
+        <v>-8546735</v>
       </c>
       <c r="G16" s="9">
-        <v>-8546735</v>
+        <v>-145637</v>
       </c>
       <c r="H16" s="9">
-        <v>-145637</v>
+        <v>-13981999</v>
       </c>
       <c r="I16" s="9">
-        <v>-13981999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4436333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -926,95 +923,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>203752074</v>
+        <v>434955993</v>
       </c>
       <c r="F18" s="15">
-        <v>434955993</v>
+        <v>678747601</v>
       </c>
       <c r="G18" s="15">
-        <v>678747601</v>
+        <v>771042806</v>
       </c>
       <c r="H18" s="15">
-        <v>771042806</v>
+        <v>1811235656</v>
       </c>
       <c r="I18" s="15">
-        <v>1811235656</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2782091557</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>6580747</v>
+        <v>7968237</v>
       </c>
       <c r="F19" s="11">
-        <v>7968237</v>
+        <v>34151060</v>
       </c>
       <c r="G19" s="11">
-        <v>34151060</v>
+        <v>59715539</v>
       </c>
       <c r="H19" s="11">
-        <v>59715539</v>
+        <v>50589773</v>
       </c>
       <c r="I19" s="11">
-        <v>50589773</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141839344</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-7968237</v>
+        <v>-34151060</v>
       </c>
       <c r="F20" s="9">
-        <v>-34151060</v>
+        <v>-59715539</v>
       </c>
       <c r="G20" s="9">
-        <v>-59715539</v>
+        <v>-50589773</v>
       </c>
       <c r="H20" s="9">
-        <v>-50589773</v>
+        <v>-141839344</v>
       </c>
       <c r="I20" s="9">
-        <v>-141839344</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-161386250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>202364584</v>
+        <v>408773170</v>
       </c>
       <c r="F21" s="13">
-        <v>408773170</v>
+        <v>653183122</v>
       </c>
       <c r="G21" s="13">
-        <v>653183122</v>
+        <v>780168572</v>
       </c>
       <c r="H21" s="13">
-        <v>780168572</v>
+        <v>1719986085</v>
       </c>
       <c r="I21" s="13">
-        <v>1719986085</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2762544651</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1036,29 +1033,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>202364584</v>
+        <v>408773170</v>
       </c>
       <c r="F23" s="13">
-        <v>408773170</v>
+        <v>653183122</v>
       </c>
       <c r="G23" s="13">
-        <v>653183122</v>
+        <v>780168572</v>
       </c>
       <c r="H23" s="13">
-        <v>780168572</v>
+        <v>1719986085</v>
       </c>
       <c r="I23" s="13">
-        <v>1719986085</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2762544651</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1068,7 +1065,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1078,7 +1075,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1088,7 +1085,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1120,7 +1117,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1128,69 +1125,69 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>401246</v>
+      </c>
+      <c r="F29" s="9">
+        <v>483700</v>
+      </c>
+      <c r="G29" s="9">
+        <v>176630</v>
+      </c>
+      <c r="H29" s="9">
+        <v>181492</v>
+      </c>
+      <c r="I29" s="9">
+        <v>244189</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <v>401246</v>
-      </c>
-      <c r="G29" s="9">
-        <v>483700</v>
-      </c>
-      <c r="H29" s="9">
-        <v>176630</v>
-      </c>
-      <c r="I29" s="9">
-        <v>181492</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>3915192</v>
       </c>
       <c r="F30" s="11">
-        <v>3915192</v>
+        <v>3669423</v>
       </c>
       <c r="G30" s="11">
-        <v>3669423</v>
+        <v>3727737</v>
       </c>
       <c r="H30" s="11">
-        <v>3727737</v>
+        <v>5921812</v>
       </c>
       <c r="I30" s="11">
-        <v>5921812</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3628446</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>4316438</v>
       </c>
       <c r="F31" s="15">
-        <v>4316438</v>
+        <v>4153123</v>
       </c>
       <c r="G31" s="15">
-        <v>4153123</v>
+        <v>3904367</v>
       </c>
       <c r="H31" s="15">
-        <v>3904367</v>
+        <v>6103304</v>
       </c>
       <c r="I31" s="15">
-        <v>6103304</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3872635</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1200,7 +1197,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1210,7 +1207,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1220,9 +1217,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1242,7 +1239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1252,7 +1249,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1260,69 +1257,69 @@
         <v>25</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="9">
+        <v>5968175</v>
+      </c>
+      <c r="F37" s="9">
+        <v>4846742</v>
+      </c>
+      <c r="G37" s="9">
+        <v>5919914</v>
+      </c>
+      <c r="H37" s="9">
+        <v>8290588</v>
+      </c>
+      <c r="I37" s="9">
+        <v>8758853</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F37" s="9">
-        <v>5968175</v>
-      </c>
-      <c r="G37" s="9">
-        <v>4846742</v>
-      </c>
-      <c r="H37" s="9">
-        <v>5919914</v>
-      </c>
-      <c r="I37" s="9">
-        <v>8290588</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
+      <c r="E38" s="11">
+        <v>108769710</v>
       </c>
       <c r="F38" s="11">
-        <v>108769710</v>
+        <v>107509779</v>
       </c>
       <c r="G38" s="11">
-        <v>107509779</v>
+        <v>100184204</v>
       </c>
       <c r="H38" s="11">
-        <v>100184204</v>
+        <v>108990846</v>
       </c>
       <c r="I38" s="11">
-        <v>108990846</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116907874</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>114737885</v>
       </c>
       <c r="F39" s="15">
-        <v>114737885</v>
+        <v>112356521</v>
       </c>
       <c r="G39" s="15">
-        <v>112356521</v>
+        <v>106104118</v>
       </c>
       <c r="H39" s="15">
-        <v>106104118</v>
+        <v>117281434</v>
       </c>
       <c r="I39" s="15">
-        <v>117281434</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>125666727</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1332,7 +1329,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1342,7 +1339,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1352,9 +1349,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1374,7 +1371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1384,7 +1381,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1392,69 +1389,69 @@
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="9">
+        <v>5885721</v>
+      </c>
+      <c r="F45" s="9">
+        <v>5153814</v>
+      </c>
+      <c r="G45" s="9">
+        <v>5915052</v>
+      </c>
+      <c r="H45" s="9">
+        <v>8227891</v>
+      </c>
+      <c r="I45" s="9">
+        <v>8782050</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F45" s="9">
-        <v>5885721</v>
-      </c>
-      <c r="G45" s="9">
-        <v>5153814</v>
-      </c>
-      <c r="H45" s="9">
-        <v>5915052</v>
-      </c>
-      <c r="I45" s="9">
-        <v>8227891</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
+      <c r="E46" s="11">
+        <v>109015479</v>
       </c>
       <c r="F46" s="11">
-        <v>109015479</v>
+        <v>107451465</v>
       </c>
       <c r="G46" s="11">
-        <v>107451465</v>
+        <v>97990129</v>
       </c>
       <c r="H46" s="11">
-        <v>97990129</v>
+        <v>111284212</v>
       </c>
       <c r="I46" s="11">
-        <v>111284212</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117000277</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>114901200</v>
       </c>
       <c r="F47" s="15">
-        <v>114901200</v>
+        <v>112605279</v>
       </c>
       <c r="G47" s="15">
-        <v>112605279</v>
+        <v>103905181</v>
       </c>
       <c r="H47" s="15">
-        <v>103905181</v>
+        <v>119512103</v>
       </c>
       <c r="I47" s="15">
-        <v>119512103</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>125782327</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1464,7 +1461,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1474,7 +1471,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1484,9 +1481,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1506,7 +1503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1516,7 +1513,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1524,69 +1521,69 @@
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="9">
+        <v>483700</v>
+      </c>
+      <c r="F53" s="9">
+        <v>176628</v>
+      </c>
+      <c r="G53" s="9">
+        <v>181492</v>
+      </c>
+      <c r="H53" s="9">
+        <v>244189</v>
+      </c>
+      <c r="I53" s="9">
+        <v>220992</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F53" s="9">
-        <v>483700</v>
-      </c>
-      <c r="G53" s="9">
-        <v>176628</v>
-      </c>
-      <c r="H53" s="9">
-        <v>181492</v>
-      </c>
-      <c r="I53" s="9">
-        <v>244189</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>3669423</v>
       </c>
       <c r="F54" s="11">
-        <v>3669423</v>
+        <v>3727737</v>
       </c>
       <c r="G54" s="11">
-        <v>3727737</v>
+        <v>5921812</v>
       </c>
       <c r="H54" s="11">
-        <v>5921812</v>
+        <v>3628446</v>
       </c>
       <c r="I54" s="11">
-        <v>3628446</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3536043</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>4153123</v>
       </c>
       <c r="F55" s="15">
-        <v>4153123</v>
+        <v>3904365</v>
       </c>
       <c r="G55" s="15">
-        <v>3904365</v>
+        <v>6103304</v>
       </c>
       <c r="H55" s="15">
-        <v>6103304</v>
+        <v>3872635</v>
       </c>
       <c r="I55" s="15">
-        <v>3872635</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3757035</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1596,7 +1593,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1606,7 +1603,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1616,9 +1613,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1638,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1648,77 +1645,77 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="9">
+        <v>741203</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1785381</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1053099</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1308310</v>
+      </c>
+      <c r="I61" s="9">
+        <v>3624293</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="9">
-        <v>741203</v>
-      </c>
-      <c r="G61" s="9">
-        <v>1785381</v>
-      </c>
-      <c r="H61" s="9">
-        <v>1053099</v>
-      </c>
-      <c r="I61" s="9">
-        <v>1308310</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C62" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>7149770</v>
       </c>
       <c r="F62" s="11">
-        <v>7149770</v>
+        <v>14892862</v>
       </c>
       <c r="G62" s="11">
-        <v>14892862</v>
+        <v>21559615</v>
       </c>
       <c r="H62" s="11">
-        <v>21559615</v>
+        <v>58613839</v>
       </c>
       <c r="I62" s="11">
-        <v>58613839</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68520592</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>0</v>
+        <v>7890973</v>
       </c>
       <c r="F63" s="15">
-        <v>7890973</v>
+        <v>16678243</v>
       </c>
       <c r="G63" s="15">
-        <v>16678243</v>
+        <v>22612714</v>
       </c>
       <c r="H63" s="15">
-        <v>22612714</v>
+        <v>59922149</v>
       </c>
       <c r="I63" s="15">
-        <v>59922149</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>72144885</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1728,7 +1725,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1738,7 +1735,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1748,9 +1745,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1770,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1780,77 +1777,77 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="9">
+        <v>22768911</v>
+      </c>
+      <c r="F69" s="9">
+        <v>29996008</v>
+      </c>
+      <c r="G69" s="9">
+        <v>42894677</v>
+      </c>
+      <c r="H69" s="9">
+        <v>124435690</v>
+      </c>
+      <c r="I69" s="9">
+        <v>190429286</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="9">
-        <v>22768911</v>
-      </c>
-      <c r="G69" s="9">
-        <v>29996008</v>
-      </c>
-      <c r="H69" s="9">
-        <v>42894677</v>
-      </c>
-      <c r="I69" s="9">
-        <v>124435690</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C70" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>416481734</v>
       </c>
       <c r="F70" s="11">
-        <v>416481734</v>
+        <v>663067547</v>
       </c>
       <c r="G70" s="11">
-        <v>663067547</v>
+        <v>753589882</v>
       </c>
       <c r="H70" s="11">
-        <v>753589882</v>
+        <v>1676135306</v>
       </c>
       <c r="I70" s="11">
-        <v>1676135306</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2548671338</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>439250645</v>
       </c>
       <c r="F71" s="15">
-        <v>439250645</v>
+        <v>693063555</v>
       </c>
       <c r="G71" s="15">
-        <v>693063555</v>
+        <v>796484559</v>
       </c>
       <c r="H71" s="15">
-        <v>796484559</v>
+        <v>1800570996</v>
       </c>
       <c r="I71" s="15">
-        <v>1800570996</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2739100624</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1860,7 +1857,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1870,7 +1867,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1880,9 +1877,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1902,7 +1899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1912,77 +1909,77 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="9">
+        <v>21724733</v>
+      </c>
+      <c r="F77" s="9">
+        <v>30728291</v>
+      </c>
+      <c r="G77" s="9">
+        <v>42639467</v>
+      </c>
+      <c r="H77" s="9">
+        <v>122119707</v>
+      </c>
+      <c r="I77" s="9">
+        <v>189290268</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="9">
-        <v>21724733</v>
-      </c>
-      <c r="G77" s="9">
-        <v>30728291</v>
-      </c>
-      <c r="H77" s="9">
-        <v>42639467</v>
-      </c>
-      <c r="I77" s="9">
-        <v>122119707</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C78" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>408738642</v>
       </c>
       <c r="F78" s="11">
-        <v>408738642</v>
+        <v>656400794</v>
       </c>
       <c r="G78" s="11">
-        <v>656400794</v>
+        <v>716535657</v>
       </c>
       <c r="H78" s="11">
-        <v>716535657</v>
+        <v>1666228553</v>
       </c>
       <c r="I78" s="11">
-        <v>1666228553</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2543062381</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>430463375</v>
       </c>
       <c r="F79" s="15">
-        <v>430463375</v>
+        <v>687129085</v>
       </c>
       <c r="G79" s="15">
-        <v>687129085</v>
+        <v>759175124</v>
       </c>
       <c r="H79" s="15">
-        <v>759175124</v>
+        <v>1788348260</v>
       </c>
       <c r="I79" s="15">
-        <v>1788348260</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2732352649</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1992,7 +1989,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2002,7 +1999,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2012,9 +2009,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2034,7 +2031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2044,77 +2041,77 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="9">
+        <v>1785381</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1053098</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1308309</v>
+      </c>
+      <c r="H85" s="9">
+        <v>3624293</v>
+      </c>
+      <c r="I85" s="9">
+        <v>4763311</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="9">
-        <v>1785381</v>
-      </c>
-      <c r="G85" s="9">
-        <v>1053098</v>
-      </c>
-      <c r="H85" s="9">
-        <v>1308309</v>
-      </c>
-      <c r="I85" s="9">
-        <v>3624293</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C86" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
+      <c r="E86" s="11">
+        <v>14892862</v>
       </c>
       <c r="F86" s="11">
-        <v>14892862</v>
+        <v>21559615</v>
       </c>
       <c r="G86" s="11">
-        <v>21559615</v>
+        <v>58613840</v>
       </c>
       <c r="H86" s="11">
-        <v>58613840</v>
+        <v>68520592</v>
       </c>
       <c r="I86" s="11">
-        <v>68520592</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74129549</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>16678243</v>
       </c>
       <c r="F87" s="15">
-        <v>16678243</v>
+        <v>22612713</v>
       </c>
       <c r="G87" s="15">
-        <v>22612713</v>
+        <v>59922149</v>
       </c>
       <c r="H87" s="15">
-        <v>59922149</v>
+        <v>72144885</v>
       </c>
       <c r="I87" s="15">
-        <v>72144885</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78892860</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2124,7 +2121,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2134,7 +2131,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2144,9 +2141,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2166,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2176,55 +2173,55 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="9">
+        <v>1847253</v>
+      </c>
+      <c r="F93" s="9">
+        <v>3691092</v>
+      </c>
+      <c r="G93" s="9">
+        <v>5962175</v>
+      </c>
+      <c r="H93" s="9">
+        <v>7208637</v>
+      </c>
+      <c r="I93" s="9">
+        <v>14842163</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F93" s="9">
-        <v>1847253</v>
-      </c>
-      <c r="G93" s="9">
-        <v>3691092</v>
-      </c>
-      <c r="H93" s="9">
-        <v>5962175</v>
-      </c>
-      <c r="I93" s="9">
-        <v>7208637</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C94" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>26</v>
+      <c r="E94" s="11">
+        <v>1826161</v>
       </c>
       <c r="F94" s="11">
-        <v>1826161</v>
+        <v>4058639</v>
       </c>
       <c r="G94" s="11">
-        <v>4058639</v>
+        <v>5783567</v>
       </c>
       <c r="H94" s="11">
-        <v>5783567</v>
+        <v>9897957</v>
       </c>
       <c r="I94" s="11">
-        <v>9897957</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18884280</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2234,7 +2231,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2244,7 +2241,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2254,9 +2251,9 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2276,7 +2273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2286,55 +2283,55 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="9">
+        <v>3815054</v>
+      </c>
+      <c r="F100" s="9">
+        <v>6188901</v>
+      </c>
+      <c r="G100" s="9">
+        <v>7245828</v>
+      </c>
+      <c r="H100" s="9">
+        <v>15009272</v>
+      </c>
+      <c r="I100" s="9">
+        <v>21741350</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F100" s="9">
-        <v>3815054</v>
-      </c>
-      <c r="G100" s="9">
-        <v>6188901</v>
-      </c>
-      <c r="H100" s="9">
-        <v>7245828</v>
-      </c>
-      <c r="I100" s="9">
-        <v>15009272</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C101" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>26</v>
+      <c r="E101" s="11">
+        <v>3829023</v>
       </c>
       <c r="F101" s="11">
-        <v>3829023</v>
+        <v>6167509</v>
       </c>
       <c r="G101" s="11">
-        <v>6167509</v>
+        <v>7522043</v>
       </c>
       <c r="H101" s="11">
-        <v>7522043</v>
+        <v>15378680</v>
       </c>
       <c r="I101" s="11">
-        <v>15378680</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21800682</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2344,7 +2341,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2354,7 +2351,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2364,9 +2361,9 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2386,7 +2383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2396,55 +2393,55 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="9">
+        <v>3691091</v>
+      </c>
+      <c r="F107" s="9">
+        <v>5962243</v>
+      </c>
+      <c r="G107" s="9">
+        <v>7208638</v>
+      </c>
+      <c r="H107" s="9">
+        <v>14842164</v>
+      </c>
+      <c r="I107" s="9">
+        <v>21554223</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F107" s="9">
-        <v>3691091</v>
-      </c>
-      <c r="G107" s="9">
-        <v>5962243</v>
-      </c>
-      <c r="H107" s="9">
-        <v>7208638</v>
-      </c>
-      <c r="I107" s="9">
-        <v>14842164</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C108" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>26</v>
+      <c r="E108" s="11">
+        <v>3749363</v>
       </c>
       <c r="F108" s="11">
-        <v>3749363</v>
+        <v>6108812</v>
       </c>
       <c r="G108" s="11">
-        <v>6108812</v>
+        <v>7312325</v>
       </c>
       <c r="H108" s="11">
-        <v>7312325</v>
+        <v>14972731</v>
       </c>
       <c r="I108" s="11">
-        <v>14972731</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21735524</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2454,7 +2451,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2464,7 +2461,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2474,9 +2471,9 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2496,7 +2493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2506,7 +2503,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>24</v>
       </c>
@@ -2514,47 +2511,47 @@
         <v>25</v>
       </c>
       <c r="D114" s="9"/>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="9">
+        <v>3691092</v>
+      </c>
+      <c r="F114" s="9">
+        <v>5962237</v>
+      </c>
+      <c r="G114" s="9">
+        <v>7208632</v>
+      </c>
+      <c r="H114" s="9">
+        <v>14842163</v>
+      </c>
+      <c r="I114" s="9">
+        <v>21554224</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F114" s="9">
-        <v>3691092</v>
-      </c>
-      <c r="G114" s="9">
-        <v>5962237</v>
-      </c>
-      <c r="H114" s="9">
-        <v>7208632</v>
-      </c>
-      <c r="I114" s="9">
-        <v>14842163</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>26</v>
+      <c r="E115" s="11">
+        <v>4058639</v>
       </c>
       <c r="F115" s="11">
-        <v>4058639</v>
+        <v>5783567</v>
       </c>
       <c r="G115" s="11">
-        <v>5783567</v>
+        <v>9897957</v>
       </c>
       <c r="H115" s="11">
-        <v>9897957</v>
+        <v>18884280</v>
       </c>
       <c r="I115" s="11">
-        <v>18884280</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20963984</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2564,7 +2561,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2574,7 +2571,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2584,9 +2581,9 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -2606,7 +2603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2616,9 +2613,9 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -2638,9 +2635,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -2660,9 +2657,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -2682,9 +2679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -2704,31 +2701,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>304804</v>
+        <v>398267</v>
       </c>
       <c r="F125" s="9">
-        <v>398267</v>
+        <v>630321</v>
       </c>
       <c r="G125" s="9">
-        <v>630321</v>
+        <v>782322</v>
       </c>
       <c r="H125" s="9">
-        <v>782322</v>
+        <v>1292323</v>
       </c>
       <c r="I125" s="9">
-        <v>1292323</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1966042</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -2748,53 +2745,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>418449</v>
+        <v>938516</v>
       </c>
       <c r="F127" s="9">
-        <v>938516</v>
+        <v>1464515</v>
       </c>
       <c r="G127" s="9">
-        <v>1464515</v>
+        <v>2155557</v>
       </c>
       <c r="H127" s="9">
-        <v>2155557</v>
+        <v>3952782</v>
       </c>
       <c r="I127" s="9">
-        <v>3952782</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3987989</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>1570462</v>
+        <v>1630712</v>
       </c>
       <c r="F128" s="11">
-        <v>1630712</v>
+        <v>2197921</v>
       </c>
       <c r="G128" s="11">
-        <v>2197921</v>
+        <v>3422396</v>
       </c>
       <c r="H128" s="11">
-        <v>3422396</v>
+        <v>9949788</v>
       </c>
       <c r="I128" s="11">
-        <v>9949788</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11933627</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -2814,48 +2811,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>2146515</v>
+        <v>2655651</v>
       </c>
       <c r="F130" s="11">
-        <v>2655651</v>
+        <v>3504157</v>
       </c>
       <c r="G130" s="11">
-        <v>3504157</v>
+        <v>4388874</v>
       </c>
       <c r="H130" s="11">
-        <v>4388874</v>
+        <v>19985128</v>
       </c>
       <c r="I130" s="11">
-        <v>19985128</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24872208</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>4440230</v>
+        <v>5623146</v>
       </c>
       <c r="F131" s="15">
-        <v>5623146</v>
+        <v>7796914</v>
       </c>
       <c r="G131" s="15">
-        <v>7796914</v>
+        <v>10749149</v>
       </c>
       <c r="H131" s="15">
-        <v>10749149</v>
+        <v>35180021</v>
       </c>
       <c r="I131" s="15">
-        <v>35180021</v>
+        <v>42759866</v>
       </c>
     </row>
   </sheetData>
